--- a/results/I2_N10_T30_C200_0_mean_res.xlsx
+++ b/results/I2_N10_T30_C200_0_mean_res.xlsx
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3600.115000009537</v>
+        <v>43202.04800009727</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9618077380652075</v>
+        <v>0.9261329764320364</v>
       </c>
     </row>
     <row r="6">
